--- a/pred_ohlcv/54_21/2020-01-21 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 AOA ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-753103.6506659568</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-641728.3256659568</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-641728.3256659568</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3529608.325665957</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3755734.706365957</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3765617.772165957</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-6552600.772165957</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4985610.772165957</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4310204.772165957</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4310204.772165957</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>56823.22783404309</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2913228.772165957</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1326661.772165957</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-512353.7721659569</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2240078.227834043</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1592795.227834043</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1592795.227834043</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4433423.227834043</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>7549384.227834043</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6002734.227834043</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5208231.227834043</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5956113.227834043</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5956113.227834043</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>8446149.227834042</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>7321048.227834042</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8967518.227834042</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>7239832.227834042</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>7458130.227834042</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4196666.227834042</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4186499.387134042</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>5066326.387134042</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>5066326.387134042</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4519328.387134042</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5545741.387134042</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2033869.387134042</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2463227.917334042</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2239705.113434041</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3176333.284834041</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>568022.2848340413</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1492265.284834041</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1232607.715165959</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1054453.284834041</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-856059.7151659587</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1037591.258065959</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-4105553.258065959</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3269370.258065959</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-5937221.258065959</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3582143.258065959</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-4916635.258065959</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4916635.258065959</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-7935051.258065959</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9383457.258065958</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9383457.258065958</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-7099089.258065958</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8292708.258065958</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8292168.258065958</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-12870429.38726596</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-12458938.14526596</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-12458388.14526596</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-14252955.14526596</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-16161375.14526596</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-24795535.84999425</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-24795535.84999425</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-22790525.84999425</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-23317503.40239425</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-26718891.37709425</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-89885371.93864763</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-90505844.84374763</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-90793379.84374763</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-90793099.84374763</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-92090668.28564763</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-92344152.44464764</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-92359228.10814764</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-92281025.30654764</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-92271165.89294764</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 AOA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 AOA ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-753103.6506659568</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-641728.3256659568</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-641728.3256659568</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3529608.325665957</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3755734.706365957</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3765617.772165957</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-6552600.772165957</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-4985610.772165957</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-4310204.772165957</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-4310204.772165957</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>56823.22783404309</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-2913228.772165957</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1326661.772165957</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-512353.7721659569</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2240078.227834043</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>1592795.227834043</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>1592795.227834043</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>4433423.227834043</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>6002734.227834043</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>5208231.227834043</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>5956113.227834043</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>5956113.227834043</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>8446149.227834042</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>7321048.227834042</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>8967518.227834042</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>7239832.227834042</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>7458130.227834042</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>4196666.227834042</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>4186499.387134042</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>4519328.387134042</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2033869.387134042</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2259177.917334042</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>2239705.113434041</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3176333.284834041</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>568022.2848340413</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1037591.258065959</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-803162.2580659587</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3269370.258065959</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-5937221.258065959</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3582143.258065959</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-4916635.258065959</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-4916905.258065959</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-7935051.258065959</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-7935321.258065959</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-9383457.258065958</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-9383457.258065958</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-7099089.258065958</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-8292708.258065958</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-8292168.258065958</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-9064764.905065957</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-10732593.38726596</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-14252955.14526596</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-16161375.14526596</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-15485899.40236596</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-18880121.40236596</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-19971517.40236596</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-22457248.40236596</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-22456973.40236596</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-25618434.40236596</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-24795260.84999425</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-24795535.84999425</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-24795535.84999425</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-24795535.84999425</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-22790525.84999425</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-22790800.84999425</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-23317503.40239425</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-26718891.37709425</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-26714891.37709425</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-28294889.37709425</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-30264508.37709425</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-30988684.37709425</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-30988684.37709425</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-30988134.37709425</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-33529908.37709425</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-33529608.37709425</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-34239822.37709425</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-34239822.37709425</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-34239547.37709425</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-35839548.18179426</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-35838998.18179426</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-35838273.18179426</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-37184710.18179426</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-37184710.18179426</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-34717602.18179426</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-37360572.93959425</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-38747688.93959425</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-38747688.93959425</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-38747413.93959425</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-41180483.93959425</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-43394499.52909426</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-43394224.52909426</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-43394779.52909426</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-43837826.52909426</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-43837826.52909426</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-43837826.52909426</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-43837826.52909426</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-43838101.52909426</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-43847124.90169425</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-43846849.90169425</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-43847124.90169425</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-44032098.32629425</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-44037890.44883254</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-44039006.51343254</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-89885371.93864763</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-92090668.28564763</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-92090948.28564763</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-92092312.47064763</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-92092312.47064763</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-92344152.44464764</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-92344152.44464764</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-92359228.10814764</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-92281025.30654764</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-92271165.89294764</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
